--- a/Cleaned_data/summer_2024_plot_observations.xlsx
+++ b/Cleaned_data/summer_2024_plot_observations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1342,7 +1342,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1375,34 +1375,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9023,6 +8995,14 @@
     <sortCondition ref="B2:B400"/>
     <sortCondition ref="C2:C400"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A389">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="xeric">
+      <formula>NOT(ISERROR(SEARCH("xeric",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="hydric">
+      <formula>NOT(ISERROR(SEARCH("hydric",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B389">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -9035,14 +9015,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A389">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="xeric">
-      <formula>NOT(ISERROR(SEARCH("xeric",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="hydric">
-      <formula>NOT(ISERROR(SEARCH("hydric",A2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9051,8 +9023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5036B376-AFE9-4F8F-8EA3-BAEA91CE8F3F}">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11130,18 +11102,6 @@
     <sortCondition ref="C2:C115"/>
     <sortCondition ref="A2:A115"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C112">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B112">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="xeric">
       <formula>NOT(ISERROR(SEARCH("xeric",B2)))</formula>
@@ -11157,6 +11117,18 @@
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C112">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
